--- a/testdata/FCfiles/stg/ManageLocations/ManageLocations.xlsx
+++ b/testdata/FCfiles/stg/ManageLocations/ManageLocations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\ManageLocations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\ManageLocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D5E1C-AFA6-4525-967A-177329A3DE9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C3ADC-2BE2-4DE9-AB6E-D9E9381C9583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>CompanyName</t>
   </si>
@@ -69,21 +69,12 @@
     <t>AutoCom10011</t>
   </si>
   <si>
-    <t>address line 1</t>
-  </si>
-  <si>
     <t>10011</t>
   </si>
   <si>
     <t>Commercial</t>
   </si>
   <si>
-    <t>07:00 AM</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
-  <si>
     <t>Sales Manager</t>
   </si>
   <si>
@@ -109,6 +100,21 @@
   </si>
   <si>
     <t>Residential</t>
+  </si>
+  <si>
+    <t>04:00 AM</t>
+  </si>
+  <si>
+    <t>09:00 AM</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>address line 2</t>
+  </si>
+  <si>
+    <t>address line1</t>
   </si>
 </sst>
 </file>
@@ -456,36 +462,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,159 +500,173 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/FCfiles/stg/ManageLocations/ManageLocations.xlsx
+++ b/testdata/FCfiles/stg/ManageLocations/ManageLocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\ManageLocations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qualitesoft\testdata\FCfiles\stg\ManageLocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C3ADC-2BE2-4DE9-AB6E-D9E9381C9583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597CEDF5-C634-4A67-8F84-82CC1479547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Residential</t>
   </si>
   <si>
-    <t>04:00 AM</t>
-  </si>
-  <si>
     <t>09:00 AM</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>address line1</t>
+  </si>
+  <si>
+    <t>04:00 PM</t>
   </si>
 </sst>
 </file>
@@ -465,34 +465,34 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="33.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="10.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -536,15 +536,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
@@ -553,16 +553,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>16</v>
@@ -580,15 +580,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>22</v>
@@ -597,16 +597,16 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>16</v>
@@ -624,15 +624,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>22</v>
@@ -660,11 +660,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>

--- a/testdata/FCfiles/stg/ManageLocations/ManageLocations.xlsx
+++ b/testdata/FCfiles/stg/ManageLocations/ManageLocations.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qualitesoft\testdata\FCfiles\stg\ManageLocations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597CEDF5-C634-4A67-8F84-82CC1479547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="449"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>CompanyName</t>
   </si>
@@ -115,13 +109,37 @@
   </si>
   <si>
     <t>04:00 PM</t>
+  </si>
+  <si>
+    <t>Add Location</t>
+  </si>
+  <si>
+    <t>Updated and delete location</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>0987463212</t>
+  </si>
+  <si>
+    <t>a1@gmail.com</t>
+  </si>
+  <si>
+    <t>address line 4</t>
+  </si>
+  <si>
+    <t>address line2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,23 +159,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,21 +184,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,45 +473,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="33.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="10.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,38 +525,38 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -546,25 +566,25 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -573,14 +593,14 @@
       <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -590,25 +610,25 @@
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -617,14 +637,14 @@
       <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -634,17 +654,17 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -653,24 +673,99 @@
       <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>